--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/cbauxite_at_hand_cost_to_alumina_bauxite_details-input.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/cbauxite_at_hand_cost_to_alumina_bauxite_details-input.xlsx
@@ -565,7 +565,7 @@
         <v>0.3625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>0.0675</v>
